--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gpc3-Cd81.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H2">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I2">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J2">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.466137</v>
+        <v>188.7054953333333</v>
       </c>
       <c r="N2">
-        <v>316.398411</v>
+        <v>566.116486</v>
       </c>
       <c r="O2">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621736</v>
       </c>
       <c r="P2">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621735</v>
       </c>
       <c r="Q2">
-        <v>27.384880113493</v>
+        <v>237.5224118412629</v>
       </c>
       <c r="R2">
-        <v>246.463921021437</v>
+        <v>2137.701706571366</v>
       </c>
       <c r="S2">
-        <v>0.001219962648949238</v>
+        <v>0.02498813103186273</v>
       </c>
       <c r="T2">
-        <v>0.001219962648949238</v>
+        <v>0.02498813103186273</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H3">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I3">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J3">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>328.403565</v>
       </c>
       <c r="O3">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="P3">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="Q3">
-        <v>28.423948868595</v>
+        <v>137.786495792085</v>
       </c>
       <c r="R3">
-        <v>255.815539817355</v>
+        <v>1240.078462128765</v>
       </c>
       <c r="S3">
-        <v>0.001266251881024059</v>
+        <v>0.0144955879514006</v>
       </c>
       <c r="T3">
-        <v>0.001266251881024058</v>
+        <v>0.0144955879514006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H4">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I4">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J4">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.872125666666667</v>
+        <v>2.932755333333333</v>
       </c>
       <c r="N4">
-        <v>26.616377</v>
+        <v>8.798266</v>
       </c>
       <c r="O4">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="P4">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="Q4">
-        <v>2.303697704728778</v>
+        <v>3.691440563949555</v>
       </c>
       <c r="R4">
-        <v>20.733279342559</v>
+        <v>33.22296507554599</v>
       </c>
       <c r="S4">
-        <v>0.000102626892744893</v>
+        <v>0.000388351565619629</v>
       </c>
       <c r="T4">
-        <v>0.000102626892744893</v>
+        <v>0.0003883515656196289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H5">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I5">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J5">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>89.57410466666666</v>
+        <v>52.716094</v>
       </c>
       <c r="N5">
-        <v>268.722314</v>
+        <v>158.148282</v>
       </c>
       <c r="O5">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="P5">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="Q5">
-        <v>23.25842386329311</v>
+        <v>66.35341364920465</v>
       </c>
       <c r="R5">
-        <v>209.325814769638</v>
+        <v>597.1807228428419</v>
       </c>
       <c r="S5">
-        <v>0.001036134110102117</v>
+        <v>0.006980595143947068</v>
       </c>
       <c r="T5">
-        <v>0.001036134110102117</v>
+        <v>0.006980595143947067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H6">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I6">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J6">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.961975</v>
+        <v>20.381714</v>
       </c>
       <c r="N6">
-        <v>47.885925</v>
+        <v>61.14514200000001</v>
       </c>
       <c r="O6">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="P6">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="Q6">
-        <v>4.144617259941667</v>
+        <v>25.65433432761133</v>
       </c>
       <c r="R6">
-        <v>37.301555339475</v>
+        <v>230.889008948502</v>
       </c>
       <c r="S6">
-        <v>0.0001846375894422066</v>
+        <v>0.002698919494561148</v>
       </c>
       <c r="T6">
-        <v>0.0001846375894422065</v>
+        <v>0.002698919494561148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2596556666666667</v>
+        <v>1.258693666666667</v>
       </c>
       <c r="H7">
-        <v>0.778967</v>
+        <v>3.776081</v>
       </c>
       <c r="I7">
-        <v>0.004011804743711503</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="J7">
-        <v>0.004011804743711502</v>
+        <v>0.05022686934352136</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.47952633333334</v>
+        <v>5.099614333333333</v>
       </c>
       <c r="N7">
-        <v>52.438579</v>
+        <v>15.298843</v>
       </c>
       <c r="O7">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="P7">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="Q7">
-        <v>4.538658063099223</v>
+        <v>6.418852263809222</v>
       </c>
       <c r="R7">
-        <v>40.847922567893</v>
+        <v>57.769670374283</v>
       </c>
       <c r="S7">
-        <v>0.0002021916214489898</v>
+        <v>0.0006752841561301854</v>
       </c>
       <c r="T7">
-        <v>0.0002021916214489897</v>
+        <v>0.0006752841561301853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>41.95156</v>
       </c>
       <c r="I8">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J8">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.466137</v>
+        <v>188.7054953333333</v>
       </c>
       <c r="N8">
-        <v>316.398411</v>
+        <v>566.116486</v>
       </c>
       <c r="O8">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621736</v>
       </c>
       <c r="P8">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621735</v>
       </c>
       <c r="Q8">
-        <v>1474.82299144124</v>
+        <v>2638.829969935352</v>
       </c>
       <c r="R8">
-        <v>13273.40692297116</v>
+        <v>23749.46972941816</v>
       </c>
       <c r="S8">
-        <v>0.06570154610548701</v>
+        <v>0.2776135041253224</v>
       </c>
       <c r="T8">
-        <v>0.06570154610548699</v>
+        <v>0.2776135041253223</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>41.95156</v>
       </c>
       <c r="I9">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J9">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>328.403565</v>
       </c>
       <c r="O9">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="P9">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="Q9">
         <v>1530.7824290346</v>
@@ -1013,10 +1013,10 @@
         <v>13777.0418613114</v>
       </c>
       <c r="S9">
-        <v>0.06819447006342202</v>
+        <v>0.1610432953314454</v>
       </c>
       <c r="T9">
-        <v>0.06819447006342201</v>
+        <v>0.1610432953314454</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>41.95156</v>
       </c>
       <c r="I10">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J10">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.872125666666667</v>
+        <v>2.932755333333333</v>
       </c>
       <c r="N10">
-        <v>26.616377</v>
+        <v>8.798266</v>
       </c>
       <c r="O10">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="P10">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="Q10">
-        <v>124.0665040775689</v>
+        <v>41.01122044388445</v>
       </c>
       <c r="R10">
-        <v>1116.59853669812</v>
+        <v>369.10098399496</v>
       </c>
       <c r="S10">
-        <v>0.005527009807348634</v>
+        <v>0.004314513911694639</v>
       </c>
       <c r="T10">
-        <v>0.005527009807348633</v>
+        <v>0.004314513911694639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>41.95156</v>
       </c>
       <c r="I11">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J11">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>89.57410466666666</v>
+        <v>52.716094</v>
       </c>
       <c r="N11">
-        <v>268.722314</v>
+        <v>158.148282</v>
       </c>
       <c r="O11">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="P11">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="Q11">
-        <v>1252.591142123315</v>
+        <v>737.1741268022133</v>
       </c>
       <c r="R11">
-        <v>11273.32027910984</v>
+        <v>6634.56714121992</v>
       </c>
       <c r="S11">
-        <v>0.05580139118601374</v>
+        <v>0.07755311817119497</v>
       </c>
       <c r="T11">
-        <v>0.05580139118601374</v>
+        <v>0.07755311817119497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>41.95156</v>
       </c>
       <c r="I12">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J12">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.961975</v>
+        <v>20.381714</v>
       </c>
       <c r="N12">
-        <v>47.885925</v>
+        <v>61.14514200000001</v>
       </c>
       <c r="O12">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="P12">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="Q12">
-        <v>223.2099173103334</v>
+        <v>285.0148992579467</v>
       </c>
       <c r="R12">
-        <v>2008.889255793</v>
+        <v>2565.13409332152</v>
       </c>
       <c r="S12">
-        <v>0.009943726642771896</v>
+        <v>0.02998449533027805</v>
       </c>
       <c r="T12">
-        <v>0.009943726642771895</v>
+        <v>0.02998449533027805</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>41.95156</v>
       </c>
       <c r="I13">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="J13">
-        <v>0.2160572494266095</v>
+        <v>0.5580112086782294</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.47952633333334</v>
+        <v>5.099614333333333</v>
       </c>
       <c r="N13">
-        <v>52.438579</v>
+        <v>15.298843</v>
       </c>
       <c r="O13">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="P13">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="Q13">
-        <v>244.4311325814712</v>
+        <v>71.31225889389778</v>
       </c>
       <c r="R13">
-        <v>2199.88019323324</v>
+        <v>641.81033004508</v>
       </c>
       <c r="S13">
-        <v>0.01088910562156623</v>
+        <v>0.00750228180829406</v>
       </c>
       <c r="T13">
-        <v>0.01088910562156623</v>
+        <v>0.00750228180829406</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H14">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I14">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J14">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.466137</v>
+        <v>188.7054953333333</v>
       </c>
       <c r="N14">
-        <v>316.398411</v>
+        <v>566.116486</v>
       </c>
       <c r="O14">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621736</v>
       </c>
       <c r="P14">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621735</v>
       </c>
       <c r="Q14">
-        <v>2.347113723556</v>
+        <v>34.257406917318</v>
       </c>
       <c r="R14">
-        <v>21.124023512004</v>
+        <v>308.316662255862</v>
       </c>
       <c r="S14">
-        <v>0.0001045610228603355</v>
+        <v>0.003603990740182742</v>
       </c>
       <c r="T14">
-        <v>0.0001045610228603354</v>
+        <v>0.003603990740182741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H15">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I15">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J15">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>328.403565</v>
       </c>
       <c r="O15">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="P15">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="Q15">
-        <v>2.43617062374</v>
+        <v>19.872684928845</v>
       </c>
       <c r="R15">
-        <v>21.92553561366</v>
+        <v>178.854164359605</v>
       </c>
       <c r="S15">
-        <v>0.0001085283979740994</v>
+        <v>0.002090671154386769</v>
       </c>
       <c r="T15">
-        <v>0.0001085283979740994</v>
+        <v>0.002090671154386769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H16">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I16">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J16">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.872125666666667</v>
+        <v>2.932755333333333</v>
       </c>
       <c r="N16">
-        <v>26.616377</v>
+        <v>8.798266</v>
       </c>
       <c r="O16">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="P16">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="Q16">
-        <v>0.1974461993364445</v>
+        <v>0.532409470458</v>
       </c>
       <c r="R16">
-        <v>1.777015794028</v>
+        <v>4.791685234122</v>
       </c>
       <c r="S16">
-        <v>8.795984768571758E-06</v>
+        <v>5.601120966765953E-05</v>
       </c>
       <c r="T16">
-        <v>8.795984768571757E-06</v>
+        <v>5.601120966765953E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H17">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I17">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J17">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>89.57410466666666</v>
+        <v>52.716094</v>
       </c>
       <c r="N17">
-        <v>268.722314</v>
+        <v>158.148282</v>
       </c>
       <c r="O17">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="P17">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="Q17">
-        <v>1.993441841321778</v>
+        <v>9.570026988665999</v>
       </c>
       <c r="R17">
-        <v>17.940976571896</v>
+        <v>86.13024289799399</v>
       </c>
       <c r="S17">
-        <v>8.880537651384173E-05</v>
+        <v>0.00100679799652365</v>
       </c>
       <c r="T17">
-        <v>8.880537651384171E-05</v>
+        <v>0.00100679799652365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H18">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I18">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J18">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.961975</v>
+        <v>20.381714</v>
       </c>
       <c r="N18">
-        <v>47.885925</v>
+        <v>61.14514200000001</v>
       </c>
       <c r="O18">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="P18">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="Q18">
-        <v>0.3552284329666667</v>
+        <v>3.700075977846001</v>
       </c>
       <c r="R18">
-        <v>3.1970558967</v>
+        <v>33.300683800614</v>
       </c>
       <c r="S18">
-        <v>1.582498876270687E-05</v>
+        <v>0.0003892600392760136</v>
       </c>
       <c r="T18">
-        <v>1.582498876270687E-05</v>
+        <v>0.0003892600392760136</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02225466666666667</v>
+        <v>0.181539</v>
       </c>
       <c r="H19">
-        <v>0.066764</v>
+        <v>0.544617</v>
       </c>
       <c r="I19">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="J19">
-        <v>0.0003438452872960662</v>
+        <v>0.007244126092967968</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.47952633333334</v>
+        <v>5.099614333333333</v>
       </c>
       <c r="N19">
-        <v>52.438579</v>
+        <v>15.298843</v>
       </c>
       <c r="O19">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="P19">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="Q19">
-        <v>0.3890010320395557</v>
+        <v>0.925778886459</v>
       </c>
       <c r="R19">
-        <v>3.501009288356001</v>
+        <v>8.332009978131</v>
       </c>
       <c r="S19">
-        <v>1.732951641651104E-05</v>
+        <v>9.7394952931135E-05</v>
       </c>
       <c r="T19">
-        <v>1.732951641651104E-05</v>
+        <v>9.7394952931135E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H20">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I20">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J20">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.466137</v>
+        <v>188.7054953333333</v>
       </c>
       <c r="N20">
-        <v>316.398411</v>
+        <v>566.116486</v>
       </c>
       <c r="O20">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621736</v>
       </c>
       <c r="P20">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621735</v>
       </c>
       <c r="Q20">
-        <v>4869.969924995959</v>
+        <v>386.4760252514894</v>
       </c>
       <c r="R20">
-        <v>43829.72932496363</v>
+        <v>3478.284227263404</v>
       </c>
       <c r="S20">
-        <v>0.2169511564549033</v>
+        <v>0.04065853611368566</v>
       </c>
       <c r="T20">
-        <v>0.2169511564549033</v>
+        <v>0.04065853611368566</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H21">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I21">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J21">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>328.403565</v>
       </c>
       <c r="O21">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="P21">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="Q21">
-        <v>5054.751949469985</v>
+        <v>224.19432681849</v>
       </c>
       <c r="R21">
-        <v>45492.76754522986</v>
+        <v>2017.74894136641</v>
       </c>
       <c r="S21">
-        <v>0.2251829678457614</v>
+        <v>0.02358597309497116</v>
       </c>
       <c r="T21">
-        <v>0.2251829678457614</v>
+        <v>0.02358597309497116</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H22">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I22">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J22">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.872125666666667</v>
+        <v>2.932755333333333</v>
       </c>
       <c r="N22">
-        <v>26.616377</v>
+        <v>8.798266</v>
       </c>
       <c r="O22">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="P22">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="Q22">
-        <v>409.6763795136574</v>
+        <v>6.006394367369333</v>
       </c>
       <c r="R22">
-        <v>3687.087415622917</v>
+        <v>54.057549306324</v>
       </c>
       <c r="S22">
-        <v>0.01825057765789377</v>
+        <v>0.0006318922425778158</v>
       </c>
       <c r="T22">
-        <v>0.01825057765789377</v>
+        <v>0.0006318922425778158</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H23">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I23">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J23">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>89.57410466666666</v>
+        <v>52.716094</v>
       </c>
       <c r="N23">
-        <v>268.722314</v>
+        <v>158.148282</v>
       </c>
       <c r="O23">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="P23">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="Q23">
-        <v>4136.144626071843</v>
+        <v>107.964563723572</v>
       </c>
       <c r="R23">
-        <v>37225.30163464659</v>
+        <v>971.681073512148</v>
       </c>
       <c r="S23">
-        <v>0.1842601440483772</v>
+        <v>0.01135822360597063</v>
       </c>
       <c r="T23">
-        <v>0.1842601440483772</v>
+        <v>0.01135822360597063</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H24">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I24">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J24">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.961975</v>
+        <v>20.381714</v>
       </c>
       <c r="N24">
-        <v>47.885925</v>
+        <v>61.14514200000001</v>
       </c>
       <c r="O24">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="P24">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="Q24">
-        <v>737.0549486754916</v>
+        <v>41.742524777132</v>
       </c>
       <c r="R24">
-        <v>6633.494538079424</v>
+        <v>375.6827229941881</v>
       </c>
       <c r="S24">
-        <v>0.03283488932143457</v>
+        <v>0.004391449508473488</v>
       </c>
       <c r="T24">
-        <v>0.03283488932143457</v>
+        <v>0.004391449508473488</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>46.17567366666666</v>
+        <v>2.048038</v>
       </c>
       <c r="H25">
-        <v>138.527021</v>
+        <v>6.144114</v>
       </c>
       <c r="I25">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="J25">
-        <v>0.7134363329640703</v>
+        <v>0.08172483882355819</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.47952633333334</v>
+        <v>5.099614333333333</v>
       </c>
       <c r="N25">
-        <v>52.438579</v>
+        <v>15.298843</v>
       </c>
       <c r="O25">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="P25">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="Q25">
-        <v>807.1289038159066</v>
+        <v>10.44420394001133</v>
       </c>
       <c r="R25">
-        <v>7264.160134343159</v>
+        <v>93.997835460102</v>
       </c>
       <c r="S25">
-        <v>0.03595659763569992</v>
+        <v>0.001098764257879441</v>
       </c>
       <c r="T25">
-        <v>0.03595659763569992</v>
+        <v>0.001098764257879441</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H26">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I26">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J26">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>105.466137</v>
+        <v>188.7054953333333</v>
       </c>
       <c r="N26">
-        <v>316.398411</v>
+        <v>566.116486</v>
       </c>
       <c r="O26">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621736</v>
       </c>
       <c r="P26">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621735</v>
       </c>
       <c r="Q26">
-        <v>444.7484849401229</v>
+        <v>1421.672165521033</v>
       </c>
       <c r="R26">
-        <v>4002.736364461107</v>
+        <v>12795.0494896893</v>
       </c>
       <c r="S26">
-        <v>0.01981299671771709</v>
+        <v>0.1495645403774911</v>
       </c>
       <c r="T26">
-        <v>0.01981299671771708</v>
+        <v>0.149564540377491</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H27">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I27">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J27">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>328.403565</v>
       </c>
       <c r="O27">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="P27">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="Q27">
-        <v>461.6236457100449</v>
+        <v>824.710495038255</v>
       </c>
       <c r="R27">
-        <v>4154.612811390405</v>
+        <v>7422.394455344295</v>
       </c>
       <c r="S27">
-        <v>0.02056476432630248</v>
+        <v>0.08676222910341902</v>
       </c>
       <c r="T27">
-        <v>0.02056476432630247</v>
+        <v>0.08676222910341902</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H28">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I28">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J28">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.872125666666667</v>
+        <v>2.932755333333333</v>
       </c>
       <c r="N28">
-        <v>26.616377</v>
+        <v>8.798266</v>
       </c>
       <c r="O28">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="P28">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="Q28">
-        <v>37.41356762169433</v>
+        <v>22.09483416642644</v>
       </c>
       <c r="R28">
-        <v>336.722108595249</v>
+        <v>198.853507497838</v>
       </c>
       <c r="S28">
-        <v>0.00166672831406388</v>
+        <v>0.002324448488873201</v>
       </c>
       <c r="T28">
-        <v>0.001666728314063879</v>
+        <v>0.002324448488873201</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H29">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I29">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J29">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>89.57410466666666</v>
+        <v>52.716094</v>
       </c>
       <c r="N29">
-        <v>268.722314</v>
+        <v>158.148282</v>
       </c>
       <c r="O29">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="P29">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="Q29">
-        <v>377.7321183231352</v>
+        <v>397.1532645745473</v>
       </c>
       <c r="R29">
-        <v>3399.589064908218</v>
+        <v>3574.379381170926</v>
       </c>
       <c r="S29">
-        <v>0.01682750020277232</v>
+        <v>0.04178181645255927</v>
       </c>
       <c r="T29">
-        <v>0.01682750020277232</v>
+        <v>0.04178181645255927</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H30">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I30">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J30">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.961975</v>
+        <v>20.381714</v>
       </c>
       <c r="N30">
-        <v>47.885925</v>
+        <v>61.14514200000001</v>
       </c>
       <c r="O30">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="P30">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="Q30">
-        <v>67.311313373525</v>
+        <v>153.5520490711007</v>
       </c>
       <c r="R30">
-        <v>605.8018203617249</v>
+        <v>1381.968441639906</v>
       </c>
       <c r="S30">
-        <v>0.002998636029337854</v>
+        <v>0.01615417548455995</v>
       </c>
       <c r="T30">
-        <v>0.002998636029337854</v>
+        <v>0.01615417548455995</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.216978999999999</v>
+        <v>7.533814333333333</v>
       </c>
       <c r="H31">
-        <v>12.650937</v>
+        <v>22.601443</v>
       </c>
       <c r="I31">
-        <v>0.06515435065798085</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="J31">
-        <v>0.06515435065798084</v>
+        <v>0.3006290713933429</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>17.47952633333334</v>
+        <v>5.099614333333333</v>
       </c>
       <c r="N31">
-        <v>52.438579</v>
+        <v>15.298843</v>
       </c>
       <c r="O31">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="P31">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="Q31">
-        <v>73.71079547761367</v>
+        <v>38.41954755893877</v>
       </c>
       <c r="R31">
-        <v>663.397159298523</v>
+        <v>345.775928030449</v>
       </c>
       <c r="S31">
-        <v>0.003283725067787234</v>
+        <v>0.004041861486440436</v>
       </c>
       <c r="T31">
-        <v>0.003283725067787233</v>
+        <v>0.004041861486440436</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H32">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I32">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J32">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>105.466137</v>
+        <v>188.7054953333333</v>
       </c>
       <c r="N32">
-        <v>316.398411</v>
+        <v>566.116486</v>
       </c>
       <c r="O32">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621736</v>
       </c>
       <c r="P32">
-        <v>0.3040932265862458</v>
+        <v>0.4975052468621735</v>
       </c>
       <c r="Q32">
-        <v>6.801616641267</v>
+        <v>10.23299579727244</v>
       </c>
       <c r="R32">
-        <v>61.21454977140301</v>
+        <v>92.09696217545199</v>
       </c>
       <c r="S32">
-        <v>0.0003030036363288252</v>
+        <v>0.001076544473629006</v>
       </c>
       <c r="T32">
-        <v>0.0003030036363288251</v>
+        <v>0.001076544473629006</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H33">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I33">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J33">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>328.403565</v>
       </c>
       <c r="O33">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="P33">
-        <v>0.3156314830647993</v>
+        <v>0.2886022589275785</v>
       </c>
       <c r="Q33">
-        <v>7.059691436805001</v>
+        <v>5.93614986237</v>
       </c>
       <c r="R33">
-        <v>63.537222931245</v>
+        <v>53.42534876133</v>
       </c>
       <c r="S33">
-        <v>0.0003145005503151837</v>
+        <v>0.0006245022919555362</v>
       </c>
       <c r="T33">
-        <v>0.0003145005503151837</v>
+        <v>0.0006245022919555362</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H34">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I34">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J34">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.872125666666667</v>
+        <v>2.932755333333333</v>
       </c>
       <c r="N34">
-        <v>26.616377</v>
+        <v>8.798266</v>
       </c>
       <c r="O34">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="P34">
-        <v>0.02558122822546647</v>
+        <v>0.007731948470917817</v>
       </c>
       <c r="Q34">
-        <v>0.572172256369</v>
+        <v>0.1590355010457778</v>
       </c>
       <c r="R34">
-        <v>5.149550307321</v>
+        <v>1.431319509412</v>
       </c>
       <c r="S34">
-        <v>2.548956864672404E-05</v>
+        <v>1.67310524848732E-05</v>
       </c>
       <c r="T34">
-        <v>2.548956864672403E-05</v>
+        <v>1.67310524848732E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H35">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I35">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J35">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>89.57410466666666</v>
+        <v>52.716094</v>
       </c>
       <c r="N35">
-        <v>268.722314</v>
+        <v>158.148282</v>
       </c>
       <c r="O35">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="P35">
-        <v>0.2582713208378986</v>
+        <v>0.1389812909939504</v>
       </c>
       <c r="Q35">
-        <v>5.776723584058</v>
+        <v>2.858653201369333</v>
       </c>
       <c r="R35">
-        <v>51.990512256522</v>
+        <v>25.727878812324</v>
       </c>
       <c r="S35">
-        <v>0.0002573459141193233</v>
+        <v>0.0003007396237547862</v>
       </c>
       <c r="T35">
-        <v>0.0002573459141193232</v>
+        <v>0.0003007396237547862</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H36">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I36">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J36">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.961975</v>
+        <v>20.381714</v>
       </c>
       <c r="N36">
-        <v>47.885925</v>
+        <v>61.14514200000001</v>
       </c>
       <c r="O36">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="P36">
-        <v>0.04602357323885856</v>
+        <v>0.05373457533461171</v>
       </c>
       <c r="Q36">
-        <v>1.029403729725</v>
+        <v>1.105245998982667</v>
       </c>
       <c r="R36">
-        <v>9.264633567525001</v>
+        <v>9.947213990844</v>
       </c>
       <c r="S36">
-        <v>4.585866710932817E-05</v>
+        <v>0.000116275477463062</v>
       </c>
       <c r="T36">
-        <v>4.585866710932816E-05</v>
+        <v>0.000116275477463062</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.06449100000000001</v>
+        <v>0.05422733333333333</v>
       </c>
       <c r="H37">
-        <v>0.193473</v>
+        <v>0.162682</v>
       </c>
       <c r="I37">
-        <v>0.0009964169203317929</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="J37">
-        <v>0.0009964169203317927</v>
+        <v>0.002163885668380191</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>17.47952633333334</v>
+        <v>5.099614333333333</v>
       </c>
       <c r="N37">
-        <v>52.438579</v>
+        <v>15.298843</v>
       </c>
       <c r="O37">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="P37">
-        <v>0.05039916804673129</v>
+        <v>0.01344467941076818</v>
       </c>
       <c r="Q37">
-        <v>1.127272132763</v>
+        <v>0.2765384863251111</v>
       </c>
       <c r="R37">
-        <v>10.145449194867</v>
+        <v>2.488846376926</v>
       </c>
       <c r="S37">
-        <v>5.021858381240849E-05</v>
+        <v>2.909274909292751E-05</v>
       </c>
       <c r="T37">
-        <v>5.021858381240848E-05</v>
+        <v>2.909274909292751E-05</v>
       </c>
     </row>
   </sheetData>
